--- a/data/bd_acv.xlsx
+++ b/data/bd_acv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Base</t>
-  </si>
-  <si>
-    <t>Two Year Base</t>
-  </si>
-  <si>
-    <t>Three Year Base</t>
-  </si>
-  <si>
-    <t>Five Year Base</t>
-  </si>
-  <si>
-    <t>Ten Year Base</t>
+    <t>One Year Base mean</t>
+  </si>
+  <si>
+    <t>One Year Base std</t>
+  </si>
+  <si>
+    <t>Two Year Base mean</t>
+  </si>
+  <si>
+    <t>Two Year Base std</t>
+  </si>
+  <si>
+    <t>Three Year Base mean</t>
+  </si>
+  <si>
+    <t>Three Year Base std</t>
+  </si>
+  <si>
+    <t>Five Year Base mean</t>
+  </si>
+  <si>
+    <t>Five Year Base std</t>
+  </si>
+  <si>
+    <t>Ten Year Base mean</t>
+  </si>
+  <si>
+    <t>Ten Year Base std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9057717429825672</v>
+        <v>0.9041850056937051</v>
       </c>
       <c r="D2">
-        <v>0.9017017762975298</v>
+        <v>0.01114962016910395</v>
       </c>
       <c r="E2">
-        <v>0.8980121002592913</v>
+        <v>0.9015344564248444</v>
       </c>
       <c r="F2">
-        <v>0.8977762070560311</v>
+        <v>0.01113865571179588</v>
       </c>
       <c r="G2">
-        <v>0.891047714225313</v>
+        <v>0.8993876526275825</v>
+      </c>
+      <c r="H2">
+        <v>0.01641469494757438</v>
+      </c>
+      <c r="I2">
+        <v>0.8970284126711349</v>
+      </c>
+      <c r="J2">
+        <v>0.01472074846364865</v>
+      </c>
+      <c r="K2">
+        <v>0.8915626060400408</v>
+      </c>
+      <c r="L2">
+        <v>0.009703811068141943</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.9027177273115298</v>
+        <v>0.9066248245544344</v>
       </c>
       <c r="D3">
-        <v>0.897203164029975</v>
+        <v>0.009890860256044244</v>
       </c>
       <c r="E3">
-        <v>0.8898876404494382</v>
+        <v>0.8981620590389563</v>
       </c>
       <c r="F3">
-        <v>0.8850680209778614</v>
+        <v>0.01330489627007841</v>
       </c>
       <c r="G3">
-        <v>0.891750839439806</v>
+        <v>0.892390971550341</v>
+      </c>
+      <c r="H3">
+        <v>0.01255113168432723</v>
+      </c>
+      <c r="I3">
+        <v>0.8862411926447843</v>
+      </c>
+      <c r="J3">
+        <v>0.01945527763094153</v>
+      </c>
+      <c r="K3">
+        <v>0.8891873091279268</v>
+      </c>
+      <c r="L3">
+        <v>0.0109814743274516</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8695930652166602</v>
+        <v>0.8672551044728689</v>
       </c>
       <c r="D4">
-        <v>0.8792103802386901</v>
+        <v>0.006661247753989168</v>
       </c>
       <c r="E4">
-        <v>0.8686257562662056</v>
+        <v>0.8718602551654827</v>
       </c>
       <c r="F4">
-        <v>0.8817033604719147</v>
+        <v>0.01450145360826683</v>
       </c>
       <c r="G4">
-        <v>0.882380412430573</v>
+        <v>0.8720867573757241</v>
+      </c>
+      <c r="H4">
+        <v>0.01671627558821652</v>
+      </c>
+      <c r="I4">
+        <v>0.8777231196654638</v>
+      </c>
+      <c r="J4">
+        <v>0.01467693970183832</v>
+      </c>
+      <c r="K4">
+        <v>0.8787184707612262</v>
+      </c>
+      <c r="L4">
+        <v>0.009236432685052816</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.8880831046141349</v>
+        <v>0.8932827520457615</v>
       </c>
       <c r="D5">
-        <v>0.8833730224812655</v>
+        <v>0.01121723230674803</v>
       </c>
       <c r="E5">
-        <v>0.8817631806395851</v>
+        <v>0.8818082454676046</v>
       </c>
       <c r="F5">
-        <v>0.869743536043701</v>
+        <v>0.008798122488490578</v>
       </c>
       <c r="G5">
-        <v>0.8847275492750478</v>
+        <v>0.8797879441049318</v>
+      </c>
+      <c r="H5">
+        <v>0.00852759115470823</v>
+      </c>
+      <c r="I5">
+        <v>0.8828324597582631</v>
+      </c>
+      <c r="J5">
+        <v>0.01524934530385911</v>
+      </c>
+      <c r="K5">
+        <v>0.8880002262187536</v>
+      </c>
+      <c r="L5">
+        <v>0.02033642124684555</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8568893844112238</v>
+        <v>0.9038574190302164</v>
       </c>
       <c r="D6">
-        <v>0.8585516236469608</v>
+        <v>0.007997266537850396</v>
       </c>
       <c r="E6">
-        <v>0.8430423509075193</v>
+        <v>0.8924296364431272</v>
       </c>
       <c r="F6">
-        <v>0.8389102681571071</v>
+        <v>0.005975629623415342</v>
       </c>
       <c r="G6">
-        <v>0.8212307574039552</v>
+        <v>0.8825875962916243</v>
+      </c>
+      <c r="H6">
+        <v>0.01109736525574546</v>
+      </c>
+      <c r="I6">
+        <v>0.8678807212006646</v>
+      </c>
+      <c r="J6">
+        <v>0.01291881660074068</v>
+      </c>
+      <c r="K6">
+        <v>0.8570851713607057</v>
+      </c>
+      <c r="L6">
+        <v>0.01574387731702154</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.9167062883336395</v>
+        <v>0.9167100977198697</v>
       </c>
       <c r="D7">
-        <v>0.9060323341659728</v>
+        <v>0.007272269145301402</v>
       </c>
       <c r="E7">
-        <v>0.891961970613656</v>
+        <v>0.9055808222755946</v>
       </c>
       <c r="F7">
-        <v>0.8760986762306169</v>
+        <v>0.01047715717062251</v>
       </c>
       <c r="G7">
-        <v>0.8776938261707544</v>
+        <v>0.8969379569642267</v>
+      </c>
+      <c r="H7">
+        <v>0.009588859623350775</v>
+      </c>
+      <c r="I7">
+        <v>0.8904053531534627</v>
+      </c>
+      <c r="J7">
+        <v>0.01821420338589705</v>
+      </c>
+      <c r="K7">
+        <v>0.889892546092071</v>
+      </c>
+      <c r="L7">
+        <v>0.01345068911210603</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.7734351597240365</v>
+        <v>0.9116654749609385</v>
       </c>
       <c r="D8">
-        <v>0.776575492645018</v>
+        <v>0.008471631091140162</v>
       </c>
       <c r="E8">
-        <v>0.7764909248055315</v>
+        <v>0.9049071377064631</v>
       </c>
       <c r="F8">
-        <v>0.7779877309179123</v>
+        <v>0.009946442248727021</v>
       </c>
       <c r="G8">
-        <v>0.7746054015171691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.9043254443533304</v>
-      </c>
-      <c r="D9">
-        <v>0.9022006661115738</v>
-      </c>
-      <c r="E9">
-        <v>0.8978392394122731</v>
-      </c>
-      <c r="F9">
-        <v>0.8959082698499961</v>
-      </c>
-      <c r="G9">
-        <v>0.8917502903377252</v>
+        <v>0.9000881780216281</v>
+      </c>
+      <c r="H8">
+        <v>0.01280916016013744</v>
+      </c>
+      <c r="I8">
+        <v>0.8972188806782381</v>
+      </c>
+      <c r="J8">
+        <v>0.01513700033270456</v>
+      </c>
+      <c r="K8">
+        <v>0.8939424273272254</v>
+      </c>
+      <c r="L8">
+        <v>0.01173971300751821</v>
       </c>
     </row>
   </sheetData>
